--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1857.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1857.xlsx
@@ -360,7 +360,7 @@
         <v>1.432638278113303</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1857.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1857.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.175162226429122</v>
+        <v>1.382440567016602</v>
       </c>
       <c r="B1">
-        <v>0.2272301728923341</v>
+        <v>2.681482315063477</v>
       </c>
       <c r="C1">
-        <v>0.3491216493352414</v>
+        <v>3.250740528106689</v>
       </c>
       <c r="D1">
-        <v>1.432638278113303</v>
+        <v>3.245505094528198</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>2.168324708938599</v>
       </c>
     </row>
   </sheetData>
